--- a/@document/word question temp/khali.xlsx
+++ b/@document/word question temp/khali.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>نوع سوال</t>
   </si>
@@ -32,18 +32,9 @@
     <t>بارم سوال</t>
   </si>
   <si>
-    <t>نام درس</t>
-  </si>
-  <si>
-    <t>نام مبحث</t>
-  </si>
-  <si>
     <t>نام منبع</t>
   </si>
   <si>
-    <t>درس نامه</t>
-  </si>
-  <si>
     <t>درجه سختی</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>شماره طراح</t>
   </si>
   <si>
-    <t>شماره فرد درج کننده</t>
-  </si>
-  <si>
     <t>برچسب سوال</t>
   </si>
   <si>
@@ -90,6 +78,9 @@
   </si>
   <si>
     <t>گزینه صحیح</t>
+  </si>
+  <si>
+    <t>شماره ناظر</t>
   </si>
 </sst>
 </file>
@@ -490,30 +481,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
-    <col min="15" max="15" width="21.09765625" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.8984375" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="20" max="20" width="11.296875" customWidth="1"/>
-    <col min="21" max="21" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" customWidth="1"/>
+    <col min="13" max="13" width="9.3984375" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="16" max="16" width="11.296875" customWidth="1"/>
+    <col min="17" max="17" width="18.69921875" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="16.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -524,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -569,441 +559,403 @@
         <v>16</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="T2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P29" s="2"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
